--- a/data/trans_orig/P36BPD04_R_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_R_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>427247</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>405723</v>
+        <v>403195</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>448119</v>
+        <v>446432</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7759404559254882</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7368493639924563</v>
+        <v>0.732259510588836</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8138475154327435</v>
+        <v>0.8107836486879689</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>562</v>
@@ -762,19 +762,19 @@
         <v>392122</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>373797</v>
+        <v>375851</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>407569</v>
+        <v>406583</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8028516939395399</v>
+        <v>0.8028516939395398</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7653332351086791</v>
+        <v>0.7695379383112512</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8344789048187619</v>
+        <v>0.8324600465901129</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1000</v>
@@ -783,19 +783,19 @@
         <v>819368</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>789584</v>
+        <v>792171</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>843284</v>
+        <v>845183</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7885904778920295</v>
+        <v>0.7885904778920293</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7599245126438948</v>
+        <v>0.7624151580485211</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8116082223343334</v>
+        <v>0.8134357759724091</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>123371</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>102499</v>
+        <v>104186</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144895</v>
+        <v>147423</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2240595440745119</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1861524845672566</v>
+        <v>0.1892163513120316</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2631506360075437</v>
+        <v>0.2677404894111642</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>124</v>
@@ -833,19 +833,19 @@
         <v>96289</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>80842</v>
+        <v>81828</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>114614</v>
+        <v>112560</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1971483060604602</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1655210951812382</v>
+        <v>0.1675399534098873</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2346667648913215</v>
+        <v>0.2304620616887489</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>240</v>
@@ -854,19 +854,19 @@
         <v>219661</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>195745</v>
+        <v>193846</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>249445</v>
+        <v>246858</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2114095221079707</v>
+        <v>0.2114095221079706</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1883917776656667</v>
+        <v>0.1865642240275905</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2400754873561053</v>
+        <v>0.2375848419514787</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>372721</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>351429</v>
+        <v>351788</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>392131</v>
+        <v>392115</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7713406968834218</v>
+        <v>0.7713406968834217</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7272761731037259</v>
+        <v>0.7280191208264858</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8115085598099347</v>
+        <v>0.8114765728585417</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>464</v>
@@ -979,19 +979,19 @@
         <v>329820</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>312315</v>
+        <v>312419</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>343604</v>
+        <v>343141</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7794521364952802</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7380831448056479</v>
+        <v>0.7383289113781266</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8120282114914245</v>
+        <v>0.8109327739009765</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>840</v>
@@ -1000,19 +1000,19 @@
         <v>702541</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>677639</v>
+        <v>679257</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>724591</v>
+        <v>729177</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7751276211067697</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7476527776059386</v>
+        <v>0.7494382299248985</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7994556266953089</v>
+        <v>0.8045155276223029</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>110491</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>91081</v>
+        <v>91097</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>131783</v>
+        <v>131424</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2286593031165783</v>
+        <v>0.2286593031165782</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1884914401900653</v>
+        <v>0.1885234271414583</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2727238268962741</v>
+        <v>0.2719808791735139</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>126</v>
@@ -1050,19 +1050,19 @@
         <v>93323</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>79539</v>
+        <v>80002</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>110828</v>
+        <v>110724</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2205478635047197</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1879717885085757</v>
+        <v>0.1890672260990235</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2619168551943524</v>
+        <v>0.2616710886218734</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>231</v>
@@ -1071,19 +1071,19 @@
         <v>203814</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>181764</v>
+        <v>177178</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>228716</v>
+        <v>227098</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2248723788932303</v>
+        <v>0.2248723788932302</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2005443733046911</v>
+        <v>0.1954844723776971</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2523472223940613</v>
+        <v>0.2505617700751016</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>361745</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>341023</v>
+        <v>342686</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>380988</v>
+        <v>381114</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7670398760564439</v>
+        <v>0.7670398760564436</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.723099891669269</v>
+        <v>0.7266272271224689</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8078430786495053</v>
+        <v>0.8081096990827136</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>237</v>
@@ -1196,19 +1196,19 @@
         <v>153899</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>144004</v>
+        <v>144137</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>161784</v>
+        <v>161296</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8233035209623378</v>
+        <v>0.8233035209623377</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7703676539717955</v>
+        <v>0.7710793756018719</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8654852929165838</v>
+        <v>0.8628707477373926</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>622</v>
@@ -1217,19 +1217,19 @@
         <v>515644</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>494290</v>
+        <v>495530</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>537164</v>
+        <v>534608</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7830104807615536</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7505853455322792</v>
+        <v>0.7524676094135279</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8156887528965127</v>
+        <v>0.8118077975527352</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>109867</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>90624</v>
+        <v>90498</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>130589</v>
+        <v>128926</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2329601239435563</v>
+        <v>0.2329601239435562</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1921569213504947</v>
+        <v>0.1918903009172863</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.276900108330731</v>
+        <v>0.2733727728775311</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>51</v>
@@ -1267,19 +1267,19 @@
         <v>33030</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25145</v>
+        <v>25633</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42925</v>
+        <v>42792</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1766964790376621</v>
+        <v>0.1766964790376622</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1345147070834161</v>
+        <v>0.1371292522626074</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2296323460282047</v>
+        <v>0.2289206243981281</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>154</v>
@@ -1288,19 +1288,19 @@
         <v>142896</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>121376</v>
+        <v>123932</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>164250</v>
+        <v>163010</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2169895192384466</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1843112471034874</v>
+        <v>0.1881922024472647</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2494146544677206</v>
+        <v>0.2475323905864721</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>854290</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>824074</v>
+        <v>816644</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>884531</v>
+        <v>886242</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.7555242639023377</v>
+        <v>0.7555242639023378</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7288012488745076</v>
+        <v>0.7222303193596336</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7822690913007777</v>
+        <v>0.783782466321058</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>963</v>
@@ -1413,19 +1413,19 @@
         <v>665102</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>643238</v>
+        <v>645029</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>687233</v>
+        <v>689958</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7733021323883685</v>
+        <v>0.7733021323883686</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7478812462985378</v>
+        <v>0.749963757508885</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7990332601870246</v>
+        <v>0.8022023081273516</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1829</v>
@@ -1434,19 +1434,19 @@
         <v>1519392</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1478138</v>
+        <v>1483154</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1557245</v>
+        <v>1560653</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.763204771821004</v>
+        <v>0.7632047718210041</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7424823394526564</v>
+        <v>0.7450021180202699</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7822186740597491</v>
+        <v>0.7839305844429362</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>276435</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>246194</v>
+        <v>244483</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>306651</v>
+        <v>314081</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2444757360976621</v>
+        <v>0.2444757360976622</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2177309086992222</v>
+        <v>0.216217533678942</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2711987511254927</v>
+        <v>0.2777696806403667</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>265</v>
@@ -1484,19 +1484,19 @@
         <v>194978</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>172847</v>
+        <v>170122</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>216842</v>
+        <v>215051</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2266978676116314</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2009667398129753</v>
+        <v>0.1977976918726482</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2521187537014623</v>
+        <v>0.250036242491115</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>516</v>
@@ -1505,19 +1505,19 @@
         <v>471413</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>433560</v>
+        <v>430152</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>512667</v>
+        <v>507651</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2367952281789958</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.217781325940251</v>
+        <v>0.2160694155570639</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2575176605473438</v>
+        <v>0.2549978819797301</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>424074</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>399171</v>
+        <v>400607</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>443516</v>
+        <v>444100</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7480815849289811</v>
+        <v>0.748081584928981</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7041519584639594</v>
+        <v>0.7066847683340151</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7823788426561012</v>
+        <v>0.7834077030201338</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1042</v>
@@ -1630,19 +1630,19 @@
         <v>664120</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>644193</v>
+        <v>643570</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>685540</v>
+        <v>682915</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7998491818326217</v>
+        <v>0.7998491818326218</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7758504116935402</v>
+        <v>0.7751002295873193</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8256470682847687</v>
+        <v>0.8224861660749887</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1450</v>
@@ -1651,19 +1651,19 @@
         <v>1088194</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1054900</v>
+        <v>1057956</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1119036</v>
+        <v>1116929</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.778845488220637</v>
+        <v>0.7788454882206369</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7550167125940905</v>
+        <v>0.7572035814091086</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8009200966427374</v>
+        <v>0.7994122226904253</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>142808</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>123366</v>
+        <v>122782</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>167711</v>
+        <v>166275</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2519184150710189</v>
+        <v>0.2519184150710188</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2176211573438987</v>
+        <v>0.2165922969798662</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2958480415360406</v>
+        <v>0.2933152316659849</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>247</v>
@@ -1701,19 +1701,19 @@
         <v>166186</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>144766</v>
+        <v>147391</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>186113</v>
+        <v>186736</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2001508181673783</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1743529317152311</v>
+        <v>0.1775138339250113</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2241495883064599</v>
+        <v>0.2248997704126806</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>385</v>
@@ -1722,19 +1722,19 @@
         <v>308994</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>278152</v>
+        <v>280259</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>342288</v>
+        <v>339232</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.221154511779363</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1990799033572626</v>
+        <v>0.2005877773095748</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2449832874059096</v>
+        <v>0.2427964185908916</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>177695</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>155998</v>
+        <v>154138</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>197146</v>
+        <v>196541</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.7490491915180629</v>
+        <v>0.7490491915180627</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6575867033305696</v>
+        <v>0.6497476399207841</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8310409470835115</v>
+        <v>0.8284888931976512</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>959</v>
@@ -1847,19 +1847,19 @@
         <v>678279</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>653128</v>
+        <v>656471</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>701345</v>
+        <v>700891</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8037610834834767</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7739569428720555</v>
+        <v>0.7779193024434554</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8310946814292561</v>
+        <v>0.8305572638099612</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1043</v>
@@ -1868,19 +1868,19 @@
         <v>855974</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>821085</v>
+        <v>821827</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>885345</v>
+        <v>887418</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7917556520522697</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7594840001474473</v>
+        <v>0.7601699077246893</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8189226815728868</v>
+        <v>0.8208402896505109</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>59533</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>40082</v>
+        <v>40687</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>81230</v>
+        <v>83090</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2509508084819372</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1689590529164885</v>
+        <v>0.1715111068023488</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3424132966694302</v>
+        <v>0.3502523600792158</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>199</v>
@@ -1918,19 +1918,19 @@
         <v>165602</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>142536</v>
+        <v>142990</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>190753</v>
+        <v>187410</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1962389165165232</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1689053185707437</v>
+        <v>0.1694427361900389</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2260430571279444</v>
+        <v>0.2220806975565444</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>227</v>
@@ -1939,19 +1939,19 @@
         <v>225135</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>195764</v>
+        <v>193691</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>260024</v>
+        <v>259282</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2082443479477302</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.181077318427113</v>
+        <v>0.1791597103494891</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2405159998525526</v>
+        <v>0.2398300922753107</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>2617772</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2556555</v>
+        <v>2563017</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2670503</v>
+        <v>2668525</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7609191581651403</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7431248415916737</v>
+        <v>0.7450033792405787</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7762468486020641</v>
+        <v>0.7756717039331308</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4227</v>
@@ -2064,19 +2064,19 @@
         <v>2883341</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2840462</v>
+        <v>2835861</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2932025</v>
+        <v>2929691</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7937074062715226</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7819041524137909</v>
+        <v>0.7806374605891978</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8071088760876219</v>
+        <v>0.806466390164678</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6784</v>
@@ -2085,19 +2085,19 @@
         <v>5501112</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5426384</v>
+        <v>5422341</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5574663</v>
+        <v>5568468</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7777594045168804</v>
+        <v>0.7777594045168807</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7671940631447781</v>
+        <v>0.7666225537123632</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7881581580057123</v>
+        <v>0.7872823194735882</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>822504</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>769773</v>
+        <v>771751</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>883721</v>
+        <v>877259</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2390808418348597</v>
+        <v>0.2390808418348598</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.223753151397936</v>
+        <v>0.2243282960668692</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2568751584083266</v>
+        <v>0.2549966207594215</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1012</v>
@@ -2135,19 +2135,19 @@
         <v>749409</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>700725</v>
+        <v>703059</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>792288</v>
+        <v>796889</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2062925937284775</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1928911239123778</v>
+        <v>0.1935336098353221</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2180958475862091</v>
+        <v>0.2193625394108024</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1753</v>
@@ -2156,19 +2156,19 @@
         <v>1571914</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1498363</v>
+        <v>1504558</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1646642</v>
+        <v>1650685</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2222405954831194</v>
+        <v>0.2222405954831195</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2118418419942877</v>
+        <v>0.2127176805264116</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2328059368552218</v>
+        <v>0.2333774462876367</v>
       </c>
     </row>
     <row r="24">
